--- a/Database/schedules.xlsx
+++ b/Database/schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ComputerScience\ProjetosPessoais\AutomaSig\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C6873-7B0C-479A-9180-BE2E3A56E68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A349D-8932-4AD8-B076-CCB056F6F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Day</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Meet</t>
+  </si>
+  <si>
+    <t>Atendimento online</t>
   </si>
 </sst>
 </file>
@@ -75,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,7 +375,7 @@
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -388,7 +395,59 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/schedules.xlsx
+++ b/Database/schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ComputerScience\ProjetosPessoais\AutomaSig\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A349D-8932-4AD8-B076-CCB056F6F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1DB8F2-EADF-4B62-96C8-FF732F321222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,8 +52,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,9 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +407,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" s="1">
@@ -413,7 +424,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -430,7 +441,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -445,6 +456,12 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
